--- a/PaperPilot/Brazel2008/HC0/新增 Microsoft Excel 工作表.xlsx
+++ b/PaperPilot/Brazel2008/HC0/新增 Microsoft Excel 工作表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\PaperPilot\Brazel2008\New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\financerpa\Desktop\PaperPilot\PaperPilot\Brazel2008\HC0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB757FA-FFF1-4615-9A84-AC92848A47C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A449784-02FF-49AC-9187-D9871391C561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>RM/AM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -488,8 +492,8 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>0.104</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -686,7 +690,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
